--- a/data/trans_dic/DC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 15,85</t>
+          <t>8,02; 15,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,7</t>
+          <t>6,28; 14,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,26</t>
+          <t>9,73; 17,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,91</t>
+          <t>14,28; 24,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 25,82</t>
+          <t>15,73; 25,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,26</t>
+          <t>18,91; 26,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,32</t>
+          <t>11,93; 17,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 18,04</t>
+          <t>11,91; 18,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,65</t>
+          <t>15,34; 20,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,59</t>
+          <t>18,12; 25,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,36</t>
+          <t>4,4; 9,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,66</t>
+          <t>4,36; 8,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 24,11</t>
+          <t>15,42; 24,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 37,78</t>
+          <t>28,57; 36,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 20,24</t>
+          <t>13,9; 20,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,57</t>
+          <t>8,18; 13,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,38; 41,27</t>
+          <t>33,65; 41,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,56; 30,27</t>
+          <t>24,4; 30,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,04</t>
+          <t>9,9; 14,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,02</t>
+          <t>6,73; 10,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,59; 31,27</t>
+          <t>25,96; 31,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,99</t>
+          <t>6,89; 13,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 11,88</t>
+          <t>5,28; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,12</t>
+          <t>5,46; 11,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,05</t>
+          <t>19,09; 27,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 24,41</t>
+          <t>15,44; 23,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 22,28</t>
+          <t>13,61; 22,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 21,43</t>
+          <t>12,78; 21,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 41,05</t>
+          <t>32,17; 40,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,71</t>
+          <t>12,2; 17,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,12</t>
+          <t>10,62; 16,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,82</t>
+          <t>9,89; 15,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 33,56</t>
+          <t>27,62; 33,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 24,1</t>
+          <t>15,17; 23,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,69</t>
+          <t>7,39; 12,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,74</t>
+          <t>7,3; 13,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 23,11</t>
+          <t>13,71; 23,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 22,49</t>
+          <t>15,16; 22,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 23,64</t>
+          <t>17,38; 23,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,48</t>
+          <t>16,23; 24,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,0; 44,77</t>
+          <t>32,45; 44,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,04</t>
+          <t>16,35; 21,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,04</t>
+          <t>13,0; 17,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,08</t>
+          <t>12,87; 18,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,13; 33,88</t>
+          <t>24,93; 34,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,6</t>
+          <t>4,0; 10,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,11</t>
+          <t>10,7; 20,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,02</t>
+          <t>6,33; 14,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,68</t>
+          <t>13,44; 23,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,14; 24,82</t>
+          <t>13,63; 24,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,27; 36,26</t>
+          <t>23,82; 36,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 21,19</t>
+          <t>10,95; 20,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,6; 36,34</t>
+          <t>22,0; 36,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,8; 16,73</t>
+          <t>9,41; 16,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 27,11</t>
+          <t>18,79; 27,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,31</t>
+          <t>9,78; 16,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,68; 29,24</t>
+          <t>21,25; 29,35</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,93; 21,3</t>
+          <t>12,14; 20,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 19,48</t>
+          <t>10,99; 19,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,97</t>
+          <t>4,95; 11,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,15; 33,04</t>
+          <t>24,21; 33,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,36; 29,99</t>
+          <t>19,77; 29,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,98; 29,13</t>
+          <t>19,12; 29,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,22; 17,65</t>
+          <t>9,13; 17,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 48,7</t>
+          <t>38,36; 48,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,07</t>
+          <t>17,2; 23,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,01</t>
+          <t>16,36; 23,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,27</t>
+          <t>7,77; 13,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,89; 39,89</t>
+          <t>33,1; 39,83</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,54</t>
+          <t>12,8; 18,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,03</t>
+          <t>9,22; 14,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,92</t>
+          <t>7,18; 11,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,88; 35,72</t>
+          <t>27,98; 36,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,01</t>
+          <t>15,14; 21,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,79; 27,79</t>
+          <t>20,53; 27,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,54; 19,09</t>
+          <t>13,55; 19,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,3; 76,13</t>
+          <t>55,12; 77,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,87; 19,23</t>
+          <t>14,95; 18,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,67; 19,94</t>
+          <t>15,57; 19,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,63</t>
+          <t>11,08; 15,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,75; 61,64</t>
+          <t>43,86; 62,89</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,77; 22,79</t>
+          <t>16,93; 22,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,54</t>
+          <t>6,4; 10,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,09</t>
+          <t>6,93; 11,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,62</t>
+          <t>14,59; 20,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,87; 31,24</t>
+          <t>25,22; 31,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,22</t>
+          <t>13,1; 18,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,45</t>
+          <t>10,71; 15,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,5; 35,63</t>
+          <t>29,55; 35,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,77; 26,08</t>
+          <t>21,82; 26,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,67</t>
+          <t>10,37; 13,58</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,38</t>
+          <t>9,43; 12,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,42; 27,44</t>
+          <t>22,64; 27,42</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>15,06; 17,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,93</t>
+          <t>8,84; 10,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,69</t>
+          <t>7,69; 9,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,46</t>
+          <t>20,1; 23,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>21,84; 24,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,46</t>
+          <t>18,87; 21,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,36</t>
+          <t>13,94; 16,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,18</t>
+          <t>37,94; 46,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>19,02; 20,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,91</t>
+          <t>14,17; 15,92</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,75</t>
+          <t>11,15; 12,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,07; 35,13</t>
+          <t>30,03; 35,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 15,86</t>
+          <t>7,94; 15,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 14,31</t>
+          <t>6,49; 13,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,69</t>
+          <t>13,94; 24,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 25,93</t>
+          <t>15,81; 25,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,95</t>
+          <t>12,29; 18,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,62</t>
+          <t>12,14; 18,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,12; 25,59</t>
+          <t>17,87; 25,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,43</t>
+          <t>4,48; 9,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,52</t>
+          <t>4,41; 8,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,57; 36,97</t>
+          <t>28,66; 36,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,62</t>
+          <t>14,14; 20,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,55</t>
+          <t>7,99; 13,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,4; 30,04</t>
+          <t>24,21; 30,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,17</t>
+          <t>9,93; 14,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,19</t>
+          <t>6,7; 10,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 13,64</t>
+          <t>6,84; 13,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,36</t>
+          <t>5,75; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,58</t>
+          <t>5,45; 11,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 23,7</t>
+          <t>14,92; 23,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 22,95</t>
+          <t>13,91; 22,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,78; 21,36</t>
+          <t>12,64; 20,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,71</t>
+          <t>12,28; 17,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,03</t>
+          <t>10,6; 16,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,03</t>
+          <t>9,82; 15,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 23,55</t>
+          <t>15,72; 23,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,2</t>
+          <t>7,22; 11,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,46</t>
+          <t>7,37; 14,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 22,99</t>
+          <t>15,37; 22,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 23,74</t>
+          <t>17,26; 23,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 24,71</t>
+          <t>15,84; 24,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,89</t>
+          <t>16,36; 21,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,01</t>
+          <t>13,1; 16,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,1</t>
+          <t>12,96; 18,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,96</t>
+          <t>4,32; 11,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,7; 20,9</t>
+          <t>10,06; 20,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,99</t>
+          <t>6,47; 14,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 24,88</t>
+          <t>13,29; 24,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 36,29</t>
+          <t>24,08; 37,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 20,48</t>
+          <t>10,93; 20,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,38</t>
+          <t>9,92; 16,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,79; 27,03</t>
+          <t>19,11; 27,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 16,44</t>
+          <t>9,87; 16,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 20,77</t>
+          <t>12,17; 20,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 19,93</t>
+          <t>10,94; 19,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 11,8</t>
+          <t>5,09; 12,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,77; 29,77</t>
+          <t>19,34; 29,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,12; 29,68</t>
+          <t>19,32; 30,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 17,76</t>
+          <t>8,92; 18,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 23,63</t>
+          <t>17,21; 23,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,0</t>
+          <t>16,25; 23,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,23</t>
+          <t>7,85; 13,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,67</t>
+          <t>13,02; 18,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,19</t>
+          <t>9,36; 14,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,93</t>
+          <t>7,13; 11,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,35</t>
+          <t>15,2; 21,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,53; 27,31</t>
+          <t>20,8; 27,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,55; 19,29</t>
+          <t>13,42; 19,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,95; 18,96</t>
+          <t>14,74; 19,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,57; 19,97</t>
+          <t>15,78; 20,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 15,0</t>
+          <t>11,16; 14,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,48</t>
+          <t>16,66; 22,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,21</t>
+          <t>6,5; 10,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,02</t>
+          <t>6,77; 11,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,22; 31,67</t>
+          <t>25,13; 31,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,1; 18,36</t>
+          <t>13,16; 18,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,71; 15,59</t>
+          <t>10,73; 15,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,82; 26,34</t>
+          <t>21,93; 26,14</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,37; 13,58</t>
+          <t>10,38; 13,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,43; 12,56</t>
+          <t>9,17; 12,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,06; 17,81</t>
+          <t>15,31; 17,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,84; 10,92</t>
+          <t>8,75; 10,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,78</t>
+          <t>7,69; 9,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,84; 24,85</t>
+          <t>21,86; 24,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,64</t>
+          <t>18,76; 21,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,94; 16,36</t>
+          <t>13,85; 16,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,02; 20,99</t>
+          <t>19,06; 20,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,17; 15,92</t>
+          <t>14,14; 15,9</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11,15; 12,71</t>
+          <t>11,24; 12,81</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/DC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,33</t>
+          <t>8,5; 15,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,73</t>
+          <t>6,49; 13,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,73; 17,32</t>
+          <t>9,57; 17,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 24,28</t>
+          <t>14,08; 23,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 25,69</t>
+          <t>15,86; 25,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 26,12</t>
+          <t>19,16; 26,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,63</t>
+          <t>12,01; 18,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 18,22</t>
+          <t>12,11; 18,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 20,62</t>
+          <t>15,03; 20,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 25,46</t>
+          <t>18,14; 25,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,67</t>
+          <t>4,58; 9,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,43</t>
+          <t>4,36; 8,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,42; 24,2</t>
+          <t>15,56; 24,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 36,81</t>
+          <t>28,66; 37,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,79</t>
+          <t>13,72; 20,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,64</t>
+          <t>8,06; 13,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 41,29</t>
+          <t>33,38; 41,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,21; 30,2</t>
+          <t>24,56; 30,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,0</t>
+          <t>9,78; 14,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,29</t>
+          <t>6,74; 10,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 31,36</t>
+          <t>25,59; 31,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 13,35</t>
+          <t>6,69; 13,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,82</t>
+          <t>5,64; 11,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,03</t>
+          <t>5,17; 11,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,71</t>
+          <t>19,4; 28,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 23,81</t>
+          <t>15,81; 24,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 22,29</t>
+          <t>13,59; 22,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,82</t>
+          <t>12,52; 21,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,17; 40,78</t>
+          <t>32,84; 41,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 17,81</t>
+          <t>11,95; 17,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,0</t>
+          <t>10,66; 16,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,04</t>
+          <t>9,75; 14,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,62; 33,52</t>
+          <t>27,47; 33,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 23,43</t>
+          <t>15,27; 24,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,96</t>
+          <t>7,19; 11,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 14,02</t>
+          <t>6,95; 13,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 23,16</t>
+          <t>13,57; 23,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 22,86</t>
+          <t>14,92; 22,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,26; 23,46</t>
+          <t>17,25; 23,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 24,42</t>
+          <t>16,3; 24,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,45; 44,48</t>
+          <t>32,0; 44,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,36; 21,98</t>
+          <t>16,23; 22,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 16,85</t>
+          <t>13,04; 17,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,29</t>
+          <t>12,68; 18,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,16</t>
+          <t>25,13; 33,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,3</t>
+          <t>4,29; 11,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,51</t>
+          <t>10,29; 20,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 14,77</t>
+          <t>6,26; 14,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,44; 23,46</t>
+          <t>14,5; 23,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 24,38</t>
+          <t>14,14; 24,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,08; 37,4</t>
+          <t>24,27; 36,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,75</t>
+          <t>11,34; 21,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 36,91</t>
+          <t>21,6; 36,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,45</t>
+          <t>9,8; 16,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,09</t>
+          <t>18,89; 27,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,87; 16,21</t>
+          <t>9,92; 16,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,25; 29,35</t>
+          <t>20,68; 29,24</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,17; 20,46</t>
+          <t>11,93; 21,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 19,76</t>
+          <t>10,47; 19,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,38</t>
+          <t>5,2; 11,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,21; 33,82</t>
+          <t>24,15; 33,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,34; 29,9</t>
+          <t>19,36; 29,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,32; 30,01</t>
+          <t>18,98; 29,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,92; 18,03</t>
+          <t>9,22; 17,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,36; 48,34</t>
+          <t>38,67; 48,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,81</t>
+          <t>16,99; 24,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 23,28</t>
+          <t>16,27; 23,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,66</t>
+          <t>7,92; 13,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,1; 39,83</t>
+          <t>32,89; 39,89</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,88</t>
+          <t>12,95; 18,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,16</t>
+          <t>9,05; 14,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,93</t>
+          <t>7,17; 11,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,98; 36,1</t>
+          <t>27,88; 35,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,01</t>
+          <t>14,9; 21,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,8; 27,41</t>
+          <t>20,79; 27,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,42; 19,31</t>
+          <t>13,54; 19,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,12; 77,63</t>
+          <t>55,3; 76,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,74; 19,01</t>
+          <t>14,87; 19,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,78; 20,22</t>
+          <t>15,67; 19,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 14,95</t>
+          <t>10,85; 14,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,86; 62,89</t>
+          <t>43,75; 61,64</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,65</t>
+          <t>16,77; 22,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,32</t>
+          <t>6,41; 10,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,06</t>
+          <t>6,82; 11,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,59; 20,77</t>
+          <t>14,04; 20,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,13; 31,58</t>
+          <t>24,87; 31,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,16; 18,31</t>
+          <t>13,06; 18,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,72</t>
+          <t>10,48; 15,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,55; 35,73</t>
+          <t>29,5; 35,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,93; 26,14</t>
+          <t>21,77; 26,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,38; 13,63</t>
+          <t>10,26; 13,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,17; 12,56</t>
+          <t>9,28; 12,38</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,64; 27,42</t>
+          <t>22,42; 27,44</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,31; 17,83</t>
+          <t>15,17; 17,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,75; 10,88</t>
+          <t>8,69; 10,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,69</t>
+          <t>7,73; 9,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,1; 23,25</t>
+          <t>20,27; 23,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,86; 24,87</t>
+          <t>22,02; 25,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,76; 21,56</t>
+          <t>18,74; 21,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,85; 16,63</t>
+          <t>13,89; 16,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,94; 46,42</t>
+          <t>37,95; 46,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,06; 20,96</t>
+          <t>18,87; 20,89</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,14; 15,9</t>
+          <t>14,2; 15,91</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11,24; 12,81</t>
+          <t>11,21; 12,75</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,03; 35,7</t>
+          <t>30,07; 35,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 15,85</t>
+          <t>9,86; 17,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 11,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,7</t>
+          <t>7,16; 14,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,26</t>
+          <t>9,06; 16,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,91</t>
+          <t>15,9; 26,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,8; 32,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 25,82</t>
+          <t>20,76; 31,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,26</t>
+          <t>18,71; 25,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,32</t>
+          <t>13,79; 20,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,72; 20,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 18,04</t>
+          <t>14,98; 21,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,65</t>
+          <t>14,24; 19,97</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,47 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>28,05%</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,59</t>
+          <t>18,58; 26,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,36</t>
+          <t>4,77; 9,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 24,11</t>
+          <t>15,19; 23,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 37,78</t>
+          <t>40,45; 49,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 20,24</t>
+          <t>16,55; 23,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,57</t>
+          <t>8,56; 14,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,38; 41,27</t>
+          <t>33,41; 41,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,56; 30,27</t>
+          <t>30,59; 36,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,04</t>
+          <t>11,47; 15,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,02</t>
+          <t>7,03; 10,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,59; 31,27</t>
+          <t>25,05; 30,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>29,99%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,99</t>
+          <t>6,81; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 11,88</t>
+          <t>5,82; 12,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,12</t>
+          <t>5,37; 11,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,05</t>
+          <t>18,87; 27,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 24,41</t>
+          <t>17,19; 26,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 22,28</t>
+          <t>15,59; 24,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 21,43</t>
+          <t>14,72; 23,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 41,05</t>
+          <t>32,7; 40,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,71</t>
+          <t>13,02; 18,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,12</t>
+          <t>11,83; 17,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,82</t>
+          <t>11,03; 16,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 33,56</t>
+          <t>26,96; 33,01</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>32,61%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 24,1</t>
+          <t>16,05; 24,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,69</t>
+          <t>8,43; 15,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,74</t>
+          <t>7,53; 14,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 23,11</t>
+          <t>13,22; 23,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 22,49</t>
+          <t>17,86; 25,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 23,64</t>
+          <t>22,99; 32,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,48</t>
+          <t>19,59; 28,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,0; 44,77</t>
+          <t>30,33; 64,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,04</t>
+          <t>17,91; 23,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,04</t>
+          <t>16,69; 22,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,08</t>
+          <t>14,92; 20,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,13; 33,88</t>
+          <t>25,1; 52,09</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1221,57 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>24,31%</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1289,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,11</t>
+          <t>11,78; 22,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,02</t>
+          <t>7,11; 15,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,68</t>
+          <t>14,52; 23,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,14; 24,82</t>
+          <t>14,42; 25,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,27; 36,26</t>
+          <t>32,37; 45,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 21,19</t>
+          <t>15,27; 25,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,6; 36,34</t>
+          <t>15,07; 36,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,8; 16,73</t>
+          <t>9,99; 17,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 27,11</t>
+          <t>23,89; 32,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,31</t>
+          <t>12,13; 19,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,68; 29,24</t>
+          <t>16,97; 28,68</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>35,93%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,93; 21,3</t>
+          <t>12,32; 21,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 19,48</t>
+          <t>10,85; 19,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,97</t>
+          <t>6,45; 14,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,15; 33,04</t>
+          <t>23,86; 32,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,36; 29,99</t>
+          <t>21,58; 32,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,98; 29,13</t>
+          <t>21,46; 32,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,22; 17,65</t>
+          <t>11,51; 20,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 48,7</t>
+          <t>38,61; 48,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,07</t>
+          <t>18,38; 25,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,01</t>
+          <t>17,88; 24,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,27</t>
+          <t>9,99; 15,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,89; 39,89</t>
+          <t>32,51; 39,51</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>51,67%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,54</t>
+          <t>13,44; 19,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,03</t>
+          <t>9,69; 14,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,92</t>
+          <t>8,57; 13,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,88; 35,72</t>
+          <t>26,99; 35,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,01</t>
+          <t>17,05; 23,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,79; 27,79</t>
+          <t>22,99; 30,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,54; 19,09</t>
+          <t>18,66; 24,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,3; 76,13</t>
+          <t>55,18; 83,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,87; 19,23</t>
+          <t>16,2; 20,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,67; 19,94</t>
+          <t>17,13; 21,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,63</t>
+          <t>14,44; 18,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,75; 61,64</t>
+          <t>42,95; 69,83</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,77; 22,79</t>
+          <t>19,43; 25,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,54</t>
+          <t>6,83; 11,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,09</t>
+          <t>7,55; 11,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,62</t>
+          <t>6,7; 19,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,87; 31,24</t>
+          <t>30,27; 36,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,22</t>
+          <t>15,31; 20,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,45</t>
+          <t>12,7; 17,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,5; 35,63</t>
+          <t>29,76; 35,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,77; 26,08</t>
+          <t>25,55; 30,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,67</t>
+          <t>11,59; 15,15</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,38</t>
+          <t>10,88; 14,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,42; 27,44</t>
+          <t>13,16; 26,73</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,66%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>16,27; 19,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,93</t>
+          <t>9,21; 11,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,69</t>
+          <t>8,54; 10,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,46</t>
+          <t>15,67; 22,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>26,41; 29,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,46</t>
+          <t>22,37; 25,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,36</t>
+          <t>17,06; 19,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,18</t>
+          <t>37,67; 52,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>21,63; 23,74</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,91</t>
+          <t>16,26; 18,17</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,75</t>
+          <t>13,27; 14,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,07; 35,13</t>
+          <t>28,22; 37,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,68</t>
+          <t>9,61; 17,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,41</t>
+          <t>5,51; 11,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,85</t>
+          <t>7,02; 14,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,69</t>
+          <t>9,25; 17,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,9; 26,26</t>
+          <t>15,99; 26,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,8; 32,35</t>
+          <t>20,5; 31,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 31,2</t>
+          <t>20,51; 31,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 25,74</t>
+          <t>18,33; 25,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 20,48</t>
+          <t>13,97; 20,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 20,34</t>
+          <t>13,94; 20,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,42</t>
+          <t>15,17; 21,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 19,97</t>
+          <t>14,34; 19,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,0</t>
+          <t>18,58; 25,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,56</t>
+          <t>4,83; 9,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,66</t>
+          <t>4,15; 8,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 23,9</t>
+          <t>14,98; 23,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,45; 49,5</t>
+          <t>40,58; 49,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 23,62</t>
+          <t>16,72; 23,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,28</t>
+          <t>8,47; 14,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,41; 41,38</t>
+          <t>33,72; 41,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,59; 36,57</t>
+          <t>30,84; 36,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 15,85</t>
+          <t>11,46; 15,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,36</t>
+          <t>6,94; 10,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 30,84</t>
+          <t>25,22; 31,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,35</t>
+          <t>7,22; 14,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,22</t>
+          <t>5,85; 12,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,55</t>
+          <t>5,36; 11,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 27,54</t>
+          <t>18,61; 27,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 26,25</t>
+          <t>17,36; 25,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,59; 24,44</t>
+          <t>15,4; 24,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,97</t>
+          <t>14,61; 23,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,7; 40,94</t>
+          <t>32,4; 40,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,87</t>
+          <t>13,02; 19,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,36</t>
+          <t>11,71; 17,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,48</t>
+          <t>11,06; 16,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,01</t>
+          <t>27,07; 32,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 24,64</t>
+          <t>16,05; 24,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,18</t>
+          <t>8,57; 15,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,38</t>
+          <t>7,76; 14,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 23,05</t>
+          <t>13,28; 22,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 25,66</t>
+          <t>17,58; 26,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,99; 32,09</t>
+          <t>22,95; 32,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,74</t>
+          <t>20,05; 29,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,33; 64,87</t>
+          <t>30,26; 65,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,92</t>
+          <t>18,18; 24,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 22,66</t>
+          <t>16,68; 22,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 20,5</t>
+          <t>14,61; 20,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,1; 52,09</t>
+          <t>24,44; 51,97</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,6</t>
+          <t>4,14; 11,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 22,35</t>
+          <t>11,72; 22,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,21</t>
+          <t>6,96; 16,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 23,68</t>
+          <t>14,61; 23,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 25,23</t>
+          <t>14,17; 24,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,37; 45,67</t>
+          <t>33,27; 46,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,27; 25,98</t>
+          <t>15,0; 25,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 36,3</t>
+          <t>14,62; 36,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 17,1</t>
+          <t>9,74; 16,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,89; 32,9</t>
+          <t>24,07; 33,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 19,37</t>
+          <t>12,32; 19,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,97; 28,68</t>
+          <t>16,04; 28,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,32; 21,3</t>
+          <t>12,21; 21,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,9</t>
+          <t>11,26; 19,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 14,28</t>
+          <t>6,57; 14,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,86; 32,72</t>
+          <t>23,74; 33,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,58; 32,53</t>
+          <t>21,66; 32,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,46; 32,24</t>
+          <t>21,77; 32,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 20,59</t>
+          <t>11,13; 20,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,61; 48,59</t>
+          <t>39,03; 48,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,38; 25,39</t>
+          <t>18,5; 25,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,88; 24,72</t>
+          <t>17,92; 24,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,83</t>
+          <t>9,96; 16,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,51; 39,51</t>
+          <t>32,44; 39,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,1</t>
+          <t>13,83; 19,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,86</t>
+          <t>9,68; 14,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,68</t>
+          <t>8,51; 13,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,99; 35,18</t>
+          <t>27,02; 35,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,05; 23,53</t>
+          <t>17,34; 23,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,99; 30,13</t>
+          <t>23,2; 30,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 24,92</t>
+          <t>18,46; 25,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,18; 83,86</t>
+          <t>55,21; 82,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,83</t>
+          <t>16,06; 20,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,67</t>
+          <t>17,15; 21,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,44; 18,47</t>
+          <t>14,61; 18,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,95; 69,83</t>
+          <t>43,17; 70,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,43; 25,64</t>
+          <t>19,33; 25,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,15</t>
+          <t>6,68; 10,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,8</t>
+          <t>7,62; 11,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,7; 19,75</t>
+          <t>6,14; 20,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,27; 36,96</t>
+          <t>30,4; 37,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,31; 20,65</t>
+          <t>15,26; 20,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,7; 17,89</t>
+          <t>12,94; 18,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,76; 35,83</t>
+          <t>29,94; 35,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,55; 30,25</t>
+          <t>26,16; 30,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,15</t>
+          <t>11,67; 15,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,16</t>
+          <t>10,95; 14,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,16; 26,73</t>
+          <t>14,07; 26,74</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,27; 19,01</t>
+          <t>16,32; 18,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,21; 11,44</t>
+          <t>9,4; 11,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,6</t>
+          <t>8,43; 10,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,67; 22,38</t>
+          <t>16,15; 22,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,41; 29,58</t>
+          <t>26,44; 29,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,18</t>
+          <t>22,43; 25,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,06; 19,8</t>
+          <t>16,94; 19,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,67; 52,79</t>
+          <t>37,77; 52,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,63; 23,74</t>
+          <t>21,7; 23,79</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,17</t>
+          <t>16,24; 18,14</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13,27; 14,91</t>
+          <t>13,14; 14,85</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>28,22; 37,94</t>
+          <t>28,45; 38,85</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36505</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23994</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30714</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38624</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54220</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74840</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>74572</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63754</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>90724</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>98834</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>105285</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>102377</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26227; 48454</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16233; 34801</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20616; 43228</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28800; 53205</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41704; 67820</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58887; 91642</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59212; 90037</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53095; 74458</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>74562; 109193</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>81130; 119859</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>88346; 125129</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86207; 119614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>109210</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34342</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31023</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>98130</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>226070</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>105330</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58090</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>191775</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>335280</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>139672</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>89113</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>289905</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>91593; 127787</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24431; 50128</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20861; 43705</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77677; 123201</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>204504; 247688</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>87560; 124651</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44327; 73537</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>173668; 212404</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>307528; 367236</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>117908; 163867</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>71156; 110027</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>260606; 322548</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32297</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27824</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25534</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>71830</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>71786</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68216</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>62706</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>127667</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>104084</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96040</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>88240</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>199497</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23034; 44629</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18964; 40241</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17073; 36137</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58830; 87078</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>58232; 86572</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52522; 82847</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49125; 79303</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113113; 142809</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85188; 125595</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>77906; 114523</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>72414; 108742</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>180061; 219418</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>72253</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42752</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39554</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54731</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>80458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107205</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>93318</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152711</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>149956</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>132872</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>257038</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>57558; 88209</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32047; 58616</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28697; 53951</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41499; 70569</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65313; 97798</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>89268; 124684</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77652; 112993</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>143969; 312301</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>132732; 176215</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>127252; 172380</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>110642; 153503</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>192657; 409628</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14392</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35403</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22825</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33361</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39671</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>86614</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43339</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>73005</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>54064</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>122017</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>66164</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>106367</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8412; 22832</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24912; 47814</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14704; 34182</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26122; 42091</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29433; 51587</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73061; 101691</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32795; 55352</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37830; 93917</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>40037; 69259</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>104025; 143047</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>52949; 82102</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>70181; 125245</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>44041</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>41979</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25986</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>77078</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>75075</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>75622</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>41816</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>112158</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>119116</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>117601</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>67802</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>189236</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>33078; 56955</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>30855; 54769</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17286; 37592</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>63999; 89991</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>60253; 90623</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60951; 91703</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30386; 55166</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>100317; 125695</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>101565; 139191</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>99292; 138131</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>53396; 86439</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>170867; 206370</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>100067</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>79994</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>71551</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>194307</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>129562</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>183796</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>150731</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>567108</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>229630</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>263790</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>222281</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>761415</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>85046; 121223</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>64136; 98015</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>55906; 90820</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>168655; 222832</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>110684; 151538</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>160980; 208619</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>127605; 173686</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>468917; 698234</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>201285; 255093</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>232655; 294995</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>196876; 252069</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>636130; 1041515</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>164968</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>67989</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>74505</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>130630</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>264754</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>146660</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>126610</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>234398</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>429722</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>214649</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>201114</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>365028</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>143755; 189099</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>52064; 84281</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>59322; 93108</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>57021; 186332</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>238153; 294446</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>125679; 170533</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>106917; 149893</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>214904; 258074</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>399488; 467590</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>187139; 243669</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>175669; 231665</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>231666; 440292</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2204</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>573733</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>354278</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>321691</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>698690</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>941596</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>848283</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>651181</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1572173</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1515329</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1202561</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>972872</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2270863</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>534641; 619071</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>322100; 392294</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>286053; 360552</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>558646; 774040</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>893553; 999137</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>798128; 901736</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>600473; 694991</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1402061; 1966429</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1444561; 1583231</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1134634; 1266868</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>911753; 1030591</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2040610; 2786276</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>